--- a/not_included/slovakia_employment_aggregation.xlsx
+++ b/not_included/slovakia_employment_aggregation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://visegradinvestments-my.sharepoint.com/personal/antaldaniel_visegradinvestments_onmicrosoft_com/Documents/2017 Projektek/iotables/not_included/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Antal\OneDrive - Visegrad Investments\2017 Projektek\iotables\not_included\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>CPA_A01</t>
   </si>
@@ -465,6 +465,9 @@
   </si>
   <si>
     <t>t_rows2</t>
+  </si>
+  <si>
+    <t>CPA_T</t>
   </si>
 </sst>
 </file>
@@ -859,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36828EB-D0BF-4348-AA4E-2B839C4CA64F}">
   <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,6 +1560,9 @@
       <c r="A84" t="s">
         <v>144</v>
       </c>
+      <c r="B84" t="s">
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
